--- a/ChamCong.xlsx
+++ b/ChamCong.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Rom\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Project\GitClone\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="13140"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="13140" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Out" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,47 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
-  <si>
-    <t>Mã nhân viên</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Tên nhân viên</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Ngày bắt đầu </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Ngày kết thúc </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Ký hiệu chấm công của loại nghỉ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Loại nửa ngày</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Từ giờ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Đến giờ </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Lý do nghỉ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Ghi chú </t>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="53">
   <si>
     <t>IVS001</t>
     <phoneticPr fontId="1"/>
@@ -74,30 +35,260 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>yyyymmdd</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0 nghỉ cả ngày
-1 nữa ngày đầu
-2 nghỉ nữa ngày sau
-3 nghỉ từ giờ đến giờ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>nếu loại nữa ngày là 3 thì bắt buộc</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Danh sach lí do nhgir </t>
-    <phoneticPr fontId="1"/>
+    <t>- Bắt buộc nhập
+- Nhập mã nhân viên cần lập kế hoạch
+- Mã nhân viên phải tồn tại trong danh sách nhân viên của công ty
+- Nhân viên có trạng thái khác nghỉ việc
+- Nhân viên có loại công việc là toàn thời gian
+- Nhân viên có sử dụng bảng chia ca
+- Nhập tối đa 10 ký tự
+Ví dụ: IVS001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">- Không bắt buộc nhập
+- Chỉ dùng để tham khảo
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>- Bắt buộc nhập
+- Nhập ngày bắt đầu của kế hoạch
+- Nhập theo định dạng chuỗi năm tháng ngày
+(yyyymmdd)
+Ví dụ: 20120423</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>- Bắt buộc nhập
+- Nhập ngày kết thúc của kế hoạch
+- Nhập theo định dạng chuỗi năm tháng ngày
+(yyyymmdd)
+Ví dụ: 20120423</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>- Bắt buộc nhập
+- Nhập ký hiệu chấm công của loại nghỉ
+- Ký hiệu chấm công của loại nghỉ tồn tại trong danh sách loại nghỉ 
+- Ký hiệu chấm công của loại nghỉ có loại khác 4 (Nghỉ công tác) và khác 2 (Nghỉ thai sản)
+- Ký hiệu chấm công của loại nghỉ có trạng thái 'Kích hoạt'
+- Nhập tối đa 10 ký tự
+Ví dụ: AL
+AL    : Nghỉ phép năm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>- Bắt buộc nhập
+- Nhập loại nửa ngày
+- Nhập theo định dạng:
+0: nghỉ cả ngày
+1: nghỉ nửa ngày đầu
+2: nghỉ nửa ngày sau
+3: Nghỉ từ giờ - đến giờ
+Ví dụ: 0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>- Nhập giờ nghỉ kết thúc
+- Nếu "Loại nửa ngày" chọn là 3 thì cột này bắt buột nhập
+- Nhập theo định dạng chuỗi
+(hh:mm)
+Ví dụ: 00:00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>- Nhập lý do nghỉ.
+Điều kiện của lý do nghỉ: 
+- Lý do nghỉ tồn tại trong danh sách lý do nghỉ
+- Lý do nghỉ có loại = 1 (Nghỉ phép)
+- Lý do nghỉ có trạng thái 'Kích hoạt'
+- Nhập tối đa 10 ký tự</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>- Nhập giờ bắt đầu nghỉ
+- Nếu "Loại nửa ngày" chọn là 3 thì cột này bắt buộc nhập
+- Nhập theo định dạng chuỗi
+(hh:mm)
+Ví dụ: 00:00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mã nhân viên
+Employee ID
+社員コード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tên nhân viên
+Employee Name
+社員名</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ngày bắt đầu
+Start Date
+開始日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ngày kết thúc
+End Date
+終了日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ký hiệu chấm công của loại nghỉ
+Leave category attendance mask
+年休休暇タイプ 休暇タイプ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Loại nửa ngày
+HaltType
+半日タイプ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Từ giờ
+From Time
+から（時）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Đến giờ
+To Time 
+時間（まで）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lý do nghỉ
+Leave Reason
+休暇理由</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Ghi chú
+Remark
+備考 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ID Code </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Title</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Section </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Days rest</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No. of day</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>End of month</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>13.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>14.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>01080367</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>01080368</t>
+  </si>
+  <si>
+    <t>01080369</t>
+  </si>
+  <si>
+    <t>01080370</t>
+  </si>
+  <si>
+    <t>01080371</t>
+  </si>
+  <si>
+    <t>01080372</t>
+  </si>
+  <si>
+    <t>01080373</t>
+  </si>
+  <si>
+    <t>01080374</t>
+  </si>
+  <si>
+    <t>01080375</t>
+  </si>
+  <si>
+    <t>01080376</t>
+  </si>
+  <si>
+    <t>01080377</t>
+  </si>
+  <si>
+    <t>01080378</t>
+  </si>
+  <si>
+    <t>01080379</t>
+  </si>
+  <si>
+    <t>01080380</t>
+  </si>
+  <si>
+    <t>01080381</t>
+  </si>
+  <si>
+    <t>01080382</t>
+  </si>
+  <si>
+    <t>01080383</t>
+  </si>
+  <si>
+    <t>01080384</t>
+  </si>
+  <si>
+    <t>01080385</t>
+  </si>
+  <si>
+    <t>01080386</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,6 +301,30 @@
       <sz val="6"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -136,14 +351,29 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -428,68 +658,86 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.625" customWidth="1"/>
+    <col min="1" max="1" width="31.125" customWidth="1"/>
+    <col min="2" max="2" width="20.25" customWidth="1"/>
+    <col min="3" max="4" width="27.375" customWidth="1"/>
+    <col min="5" max="5" width="26.5" customWidth="1"/>
+    <col min="6" max="6" width="18.625" customWidth="1"/>
+    <col min="7" max="7" width="23.25" customWidth="1"/>
+    <col min="8" max="8" width="23.5" customWidth="1"/>
+    <col min="9" max="9" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="75" x14ac:dyDescent="0.4">
-      <c r="C1" t="s">
+    <row r="1" spans="1:10" s="3" customFormat="1" ht="214.5" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="49.5" x14ac:dyDescent="0.4">
+      <c r="A2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="C2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G1" t="s">
+      <c r="D2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E2" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" t="s">
-        <v>9</v>
+      <c r="F2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>20120423</v>
@@ -498,16 +746,299 @@
         <v>20120423</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>3</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <v>0.375</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
         <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="3.5" customWidth="1"/>
+    <col min="2" max="2" width="10.625" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
